--- a/uploads/upload_data_pelanggan.xlsx
+++ b/uploads/upload_data_pelanggan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nuril\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\mopega-web\upload\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCC8299-6534-46A2-8CE9-D2EBEA8B92A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B503A4B-6F84-44C4-8743-D3F111D0657E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{E06DEA4F-DB15-4658-810B-0F1691DAC03F}"/>
   </bookViews>
@@ -483,7 +483,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A3:XFD4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -619,10 +619,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{F556951B-2FEA-4A1E-89CF-2CD649BC9E5C}"/>
-    <hyperlink ref="H4" r:id="rId2" xr:uid="{F957276D-17BC-4CCE-AB7D-E699C2D96C37}"/>
-    <hyperlink ref="H3" r:id="rId3" xr:uid="{28365BBC-6803-4115-9C31-320A56358EB0}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{28365BBC-6803-4115-9C31-320A56358EB0}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{F957276D-17BC-4CCE-AB7D-E699C2D96C37}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/uploads/upload_data_pelanggan.xlsx
+++ b/uploads/upload_data_pelanggan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\mopega-web\upload\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nuril\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B503A4B-6F84-44C4-8743-D3F111D0657E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17580A0-7493-43F5-9408-BDAA64E8D419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{E06DEA4F-DB15-4658-810B-0F1691DAC03F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>NAMA PELANGGAN</t>
   </si>
@@ -81,9 +81,6 @@
     <t>andiirawan@gmail.com</t>
   </si>
   <si>
-    <t>Desa Pucung</t>
-  </si>
-  <si>
     <t>Indah Anindya</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>indahanindya@gmail.com</t>
   </si>
   <si>
-    <t>Kajen</t>
-  </si>
-  <si>
     <t>Adi Nugroho</t>
   </si>
   <si>
@@ -117,7 +111,43 @@
     <t>adinugroho@gmail.com</t>
   </si>
   <si>
-    <t>Wonopringgo</t>
+    <t>KOTA / KAB</t>
+  </si>
+  <si>
+    <t>KECAMATAN</t>
+  </si>
+  <si>
+    <t>KELURAHAN</t>
+  </si>
+  <si>
+    <t>Kota Pekalongan</t>
+  </si>
+  <si>
+    <t>Pekalongan Timur</t>
+  </si>
+  <si>
+    <t>Noyontaan</t>
+  </si>
+  <si>
+    <t>Pekalongan Barat</t>
+  </si>
+  <si>
+    <t>Pasirkrataonkramat</t>
+  </si>
+  <si>
+    <t>Kramatsari</t>
+  </si>
+  <si>
+    <t>Umar No.21</t>
+  </si>
+  <si>
+    <t>Pekalongan Selatan</t>
+  </si>
+  <si>
+    <t>Buaran</t>
+  </si>
+  <si>
+    <t>Pasar Buaran</t>
   </si>
 </sst>
 </file>
@@ -480,18 +510,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736AE3C7-6D69-42D6-A1D3-98A44ED4C4FF}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="10" width="17.265625" customWidth="1"/>
+    <col min="1" max="13" width="17.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,10 +550,19 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -552,12 +591,21 @@
         <v>85273617172</v>
       </c>
       <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>16</v>
       </c>
       <c r="B3">
         <v>14253442221</v>
@@ -566,54 +614,72 @@
         <v>28312215</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
       <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="I3">
         <v>85324142331</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>14426635272</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I4">
         <v>85233263712</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -623,5 +689,6 @@
     <hyperlink ref="H4" r:id="rId3" xr:uid="{F957276D-17BC-4CCE-AB7D-E699C2D96C37}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>